--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslf_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslf_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B27929-992B-477C-8EFD-25652A156E00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C186D6-FC28-4A38-8414-87B7C7AB08E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="32760" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2207,16 +2207,12 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:M2"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2262,7 +2258,20 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2454,16 +2463,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -2471,15 +2479,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2496,12 +2504,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslf_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslf_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C186D6-FC28-4A38-8414-87B7C7AB08E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CB603-F90E-420E-9615-0BACA74C44F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="32760" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sslf_Beispielbefüllung" sheetId="8" r:id="rId1"/>
@@ -154,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -209,8 +209,131 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -218,77 +341,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -297,261 +357,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -559,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -576,18 +381,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -598,27 +403,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,73 +426,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,9 +459,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -754,9 +499,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,26 +534,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,26 +569,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1037,7 +748,7 @@
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1054,11 +765,11 @@
     <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="1" customWidth="1"/>
     <col min="12" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="79.85546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="79.85546875" style="8" customWidth="1"/>
     <col min="15" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="8"/>
-    <col min="18" max="18" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="11.42578125" style="7"/>
+    <col min="18" max="18" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,80 +800,80 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="27" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="32" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1178,66 +889,55 @@
       <c r="H4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="35"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="16"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="18"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21"/>
+      <c r="B7" s="6"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8"/>
@@ -2213,6 +1913,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2256,19 +1969,6 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2464,9 +2164,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2480,9 +2180,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
